--- a/NED Registered Employers.xlsx
+++ b/NED Registered Employers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:E601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12960,6 +12960,2506 @@
         </is>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>501</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>AMCA Hydraulic Fluid Power B.V.</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>AMCA Hydraulic Fluid Power B.V.</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>AMCA Potencia de fluido hidráulico B.V.</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>502</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>AMCO Solutions B.V.</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Amco Solutions B.V.</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>AMCO Solutions B.V.</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>503</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Amcor Specialty Cartons Brabant B.V.</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Amcor Specialty Cartons Brabant B.V.</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>AMCOR Specialty Cartons Brabant B.V.</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>504</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Amdocs B.V.</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Amdocs B.V.</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>AMDOCS B.V.</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>505</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Amelia NL B.V.</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Amelia NL B.V.</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Amelia NL B.V.</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>506</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>America II Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>America II Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>América II Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>507</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>American Eagle Outfitters Dutch Op Co B.V.</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>American Eagle Outfitters Dutch on Co B.V.</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>American Eagle Outfitters Dutch en Co B.V.</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>508</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>American Express Europe S.A. (Netherlands branch)</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>American Express Europe S.A.(Netherlands branch)</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>American Express Europe S.A.(Rama de los Países Bajos)</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>509</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>American Express Payments Europe, S.L. (Netherlands branch)</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>American Express Payments Europe, S.L.(Netherlands branch)</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>American Express Payments Europe, S.L.(Rama de los Países Bajos)</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>510</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>American Orthodontics B.V.</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>American Orthodontics B.V.</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>American Orthodontics B.V.</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>511</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Americold Netherlands II B.V.</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Americold Netherlands II B.V.</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Americold Países Bajos II B.V.</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>512</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>AM-Flow Holding B.V.</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>AM-Flow Holding B.V.</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>AM-Flow Holding B.V.</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>513</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Amgen B.V.</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Amgen B.V.</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Amgen B.V.</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>514</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Amgen Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Amgen Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Amgen Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>515</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Amicorp Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Amicorp Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>AMICORP NECHEROS B.V.</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>516</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Amiri Collections B.V.</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Amiri Collections B.V.</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Colecciones de Amiri B.V.</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>517</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Amis Services B.V.</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Amis Services B.V.</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Servicios de AMIS B.V.</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>518</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>AMISYS Co. Ltd.</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Amisys Co.Ltd.</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>Amisys Co.Limitado.</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>519</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Amity Global Education</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Amity Global Education</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Educación global de Amity</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>520</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Ammega Group B.V.</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Ammega Group B.V.</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Grupo de Ammega B.V.</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>521</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>AMMP Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>AMMP Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>AMMP Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>522</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Amnesty International, Afdeling Nederland</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Amnesty International, Department of the Netherlands</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Amnistía Internacional, Departamento de los Países Bajos</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>523</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>AMO Groningen B.V.</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Amo Groningen B.V.</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Amo Groningen B.V.</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>524</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Ampelmann Operations B.V.</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Ampelmann Operations B.V.</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Operaciones de Ampelmann B.V.</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>525</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Amperapark B.V.</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Amperapark B.V.</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Amperapark B.V.</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>526</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Ampersand Management B.V.</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Ampersand Management B.V.</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Ampersand Management B.V.</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>527</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>AM-Pharma B.V.</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>AM-Pharma B.V.</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Am-Pharma B.V.</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>528</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Amphenol Benelux B.V.</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Amphenol Benelux B.V.</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>Amphenol Benelux B.V.</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>529</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Amphia Ziekenhuis</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Amphia Hospital</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Hospital anfia</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>530</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Ampire Vastgoed B.V.</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Ampire Vastgoed B.V.</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Ampire Vastgoed B.V.</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>531</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Ampleon Coöperatief U.A.</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Ampleon Cooperative U.A.</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>AMPLEON COOPERATIVA U.A.</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>532</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Ampleon Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Ampleon Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>AMPLEON NECHEROS B.V.</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>533</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Amplitude Analytics B.V.</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Amplitude Analytics B.V.</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Analítica de amplitud B.V.</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>534</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Ampowr B.V.</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Ampowr B.V.</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>AMPOWR B.V.</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>535</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>AMS Green Markets B.V.</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>AMS Green Markets B.V.</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>AMS Green Markets B.V.</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>536</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>ams Sensors Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>AMS Sensors Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>Sensores AMS Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>537</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>AMS Sourcing B.V.</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>AMS Sourcing B.V.</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>ARGURA DE AMS B.V.</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>538</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>AMSE</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Amse</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Amse</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>539</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Amsino HR B.V.</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Amsino HR B.V.</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>Amsino HR B.V.</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>540</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>AMSMA Group B.V.</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Amsma Group B.V.</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>Grupo AMSMA B.V.</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>541</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>AMST-Aviation B.V.</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Amst-Aviation B.V.</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>AMST-Viation B.V.</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>542</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>543</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Amsterdam Capital Partners B.V.</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Amsterdam Capital Partners B.V.</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>Amsterdam Capital Partners B.V.</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>544</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Amsterdam Data Collective B.V.</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Amsterdam Data Collective B.V.</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>Amsterdam Data Collective B.V.</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>545</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Amsterdam Downtown Hotel B.V.</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Amsterdam Downtown Hotel B.V.</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>Amsterdam Downtown Hotel B.V.</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>546</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Amsterdam Institute of Technology B.V.</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Amsterdam Institute of Technology B.V.</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>Instituto de Tecnología Amsterdam B.V.</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>547</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Amsterdam Internet Exchange B.V.</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Amsterdam Internet Exchange B.V.</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>Amsterdam Internet Exchange B.V.</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>548</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Amsterdam Platform Creation B.V.</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Amsterdam Platform Creation B.V.</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>Creación de plataforma de Amsterdam B.V.</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>549</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Amsterdam Scientific Instruments B.V.</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Amsterdam Scientific Instruments B.V.</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Amsterdam Scientific Instruments B.V.</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>550</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Amsterdam Scrap Terminal B.V.</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Amsterdam Scrap Terminal B.V.</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>Terminal de desechos de Amsterdam B.V.</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>551</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Amsterdam Software B.V.</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Amsterdam Software B.V.</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>Software de Amsterdam B.V.</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>552</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Amsterdam VentureLab B.V.</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Amsterdam Venturelab B.V.</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>Amsterdam Venturelab B.V.</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>553</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Amsterdamse Hogeschool voor de Kunsten</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Amsterdamse Hogeschool of the Arts</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>Amsterdamse Hogeschool of the Arts</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>554</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>AMSYSTEMS B.V.</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Amsystems B.V.</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>Amsystems B.V.</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>555</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>An Info Systems B.V.</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>An Info Systems B.V.</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>Un sistema de información B.V.</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>556</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>ANA Architecten B.V.</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Ana Architecten B.V.</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>Ana Architecten B.V.</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>557</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Anachron B.V.</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Anachron B.V.</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>Anachron B.V.</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>558</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Anachron Technology B.V.</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Anachron Technology B.V.</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>Tecnología de Anachron B.V.</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>559</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Anadolubank Nederland N.V.</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Anadolubank Nederland N.V.</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Anadolubank Nederland N.V.</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>560</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Anago B.V.</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Anago B.V.</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>Anago B.V.</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>561</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>AnalitiQs B.V.</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Analitiqs B.V.</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Analitiqs B.V.</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>562</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Analog Folk B.V.</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Analog Folk B.V.</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>Folk analógico B.V.</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>563</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Analytical Solutions and Products B.V.</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Analytical Solutions and Products B.V.</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>Soluciones y productos analíticos B.V.</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>564</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Analytics in HR B.V.</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Analytics in HR B.V.</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>Análisis en HR B.V.</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>565</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Analytix Power B.V.</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Analytix Power B.V.</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>Analytix Power B.V.</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>566</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Ananda B.V.</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Ananda B.V.</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>Ananda B.V.</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>567</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Ananda Digital Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Ananda Digital Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>Ananda Digital Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>568</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Anaplan Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Anaplan Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>Anaplan Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>569</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Anatolia B.V.</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Anatolia B.V.</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Anatolia B.V.</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>570</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>AND Digital Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>And Digital Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>Y Digital Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>571</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Anderis Technology B.V.</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Otheris Technology B.V.</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>OTRO TECNOLOGÍA B.V.</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>572</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Andile B.V.</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Andile B.V.</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>Andile B.V.</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>573</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Andre Rieu Productions B.V.</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Andre Rieu Productions B.V.</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>Andre Rieu Productions B.V.</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>574</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>anDREa B.V.</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Andrea B.V.</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>Andrea B.V.</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>575</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Andries Geerse Stedenbouwkundige B.V.</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Andries Geerse urban development B.V.</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>Andries Geerse Urban Development B.V.</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>576</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>ANDRITZ FEED &amp; BIOFUEL B.V.</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Andritz Feed &amp; Biofuel B.V.</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>Andritz Feed &amp; Biofuel B.V.</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>577</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>ANDRITZ Gouda B.V.</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Andritz Gouda B.V.</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>Andritz Gouda B.V.</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>578</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Andritz Metals France SAS</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Andritz Metals France Sas</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>Andritz Metals France Sas</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>579</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>aNewSpring</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>anewspring</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>anawspring</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>580</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Angara DX B.V.</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Angara DX B.V.</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>Angara DX B.V.</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>581</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Angelo, Gordon Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Angelo, Gordon Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>Angelo, Gordon Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>582</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Angelscompany B.V.</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Angelscompany B.V.</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>Angelscompany B.V.</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>583</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>AngioDynamics Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Angiodynamics Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Angiodinámica Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>584</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Angiogenesis Analytics B.V.</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Angiogenesis Analytics B.V.</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>Análisis de angiogénesis B.V.</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>585</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Anglia NL. B.V.</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Anglia NL.E.g.</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>Anglia NL.P.ej.</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>586</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>AniCura Netherlands Holding B.V.</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Anicura Netherlands Holding B.V.</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>Anicura Países Bajos que tienen B.V.</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>587</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>AniForm Engineering B.V.</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Anniform Engineering B.V.</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>Ingeniería Anniform B.V.</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>588</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Animal Health Concepts B.V.</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Animal Health Concepts B.V.</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>Animal Health Concepts B.V.</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>589</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Anixter Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Anixter Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>Anixter Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>590</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Anji Logistics Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Anji Logistics Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>Anji Logistics Europe B.V.</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>591</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Anker Recruitment B.V.</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Anker Recruitment B.V.</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>Anker Recruitment B.V.</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>592</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Ankerbeer B.V.</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Ankerbeer B.V.</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Ankerbeer B.V.</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>593</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Ankerpoort N.V.</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Ankerpoort N.V.</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Ankerpoort N.V.</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>594</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Anna Agency B.V.</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Anna Agency B.V.</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>Agencia de Anna B.V.</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>595</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>ANNA Dutch B.V.</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Anna Dutch B.V.</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>Anna Dutch B.V.</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>596</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Anna Technology B.V.</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Anna Technology B.V.</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>Anna Technology B.V.</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>597</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Annogen B.V.</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Annogen B.V.</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Annógeno B.V.</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>598</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Annual Insight B.V.</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Annual Insight B.V.</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>Insight anual B.V.</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>599</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Anomaly B.V.</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Anomaly B.V.</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>Anomalía B.V.</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>600</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Anopanel B.V.</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Anopanel B.V.</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Anopanel B.V.</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NED Registered Employers.xlsx
+++ b/NED Registered Employers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E601"/>
+  <dimension ref="A1:E801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15460,6 +15460,5006 @@
         </is>
       </c>
     </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>601</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Anotech Energy Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Anotech Energy Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Anotech Energy Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>602</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>AnQore B.V.</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Anqore B.V.</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>Anqore B.V.</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>603</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Anritsu Infivis B.V.</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Anritsu Infivis B.V.</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Anritsu Infivis B.V.</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>604</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Ans Exam B.V.</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Ans Exam B.V.</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>Examen ANS B.V.</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>605</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>ANSINGER B.V.</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Ansinger B.V.</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>Ansinger B.V.</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>606</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>ANSYS Netherlands</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Ansys Netherlands</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>Ansys Países Bajos</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>607</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Antaris Solutions B.V.</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Antaris Solutions B.V.</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>Soluciones de Antaris B.V.</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>608</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Antec Europe</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Antec Europe</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>Antec Europa</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>609</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Antec Leyden B.V.</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Antec Leyden B.V.</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Antec Leyden B.V.</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>610</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Anterra Capital B.V.</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Anterra Capital B.V.</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>Anterra Capital B.V.</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>611</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Anteryon B.V.</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Anteryon B.V.</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Anteryon B.V.</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>612</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Anteverta-mw B.V.</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Anteverta-MW B.V.</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>Anteverta-MW B.V.</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>613</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>ANTFIN (NETHERLANDS) HOLDING B.V.</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Antfin (Netherlands) Holding B.V.</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>Antfin (Países Bajos) Holding B.V.</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>614</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Anthony Veder Rederijzaken B.V.</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Anthony Veder Rederijzaken B.V.</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Anthony Veder Rederijzaken B.V.</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>615</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Anthos Fund &amp; Asset Management B.V.</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Anthos Fund &amp; Asset Management B.V.</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Anthos Fund &amp; Asset Management B.V.</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>616</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Anthos Private Wealth Management B.V.</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Anthos Private Wealth Management B.V.</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Anthos Private Wealth Management B.V.</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>617</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Antlia Advies en Consultancy B.V.</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Antlia Advies and Consultancy B.V.</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>Antlia Avies and Consultancy B.V.</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>618</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Anton Paar Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Anton pair Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Anton Par de Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>619</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Anvil Ventures The Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Anvil Ventures The Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>Anvil Ventura los Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>620</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>ANWB B.V.</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>ANWB B.V.</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>ANWB B.V.</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>621</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>ANWB Reizen B.V.</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>ANWB Reizen B.V.</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Anwb Reizen B.V.</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>622</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>ANWB Retail B.V.</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>ANWB RETAIL B.V.</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>Anwb Retail B.V.</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>623</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Anyone.com B.V.</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Anyone.com B.V.</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>Cualquier persona.com B.V.</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>624</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>AOC International (Europe) B.V.</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>AOC International (Europe) B.V.</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>AOC International (Europa) B.V.</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>625</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>AOC Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>AOC Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>AOC Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>626</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Aoki Co.,LTD Rotterdam Branch</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Aoki Co., Ltd Rotterdam Branch</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>Aoki Co., Ltd Rotterdam Branch</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>627</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Aon Groep Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Aon Groep Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>Aon Groep Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>628</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Aopen Computer B.V.</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Aopen Computer B.V.</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>Aopen Computer B.V.</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>629</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Apacer Technology B.V.</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>APACER TECHNOLOGY B.V.</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>APACER TECHNOLOGY B.V.</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>630</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Apandam Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>APANDAM EUROPE B.V.</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>APANDAM Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>631</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Apara B.V.</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Apara B.V.</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Apara B.V.</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>632</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Apeel Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Apeel Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>APEEL NECHATHERLANDS B.V.</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>633</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Apeldoorn Orthodontie</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Apeldoorn Orthodontics</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Apeldoorn Orthodontics</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>634</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Apex Financial Services B.V.</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>APEX Financial Services B.V.</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>Apex Financial Services B.V.</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>635</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Apex Global Logistics (NL) B.V.</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>APEX Global Logistics (NL) B.V.</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Apex Global Logistics (NL) B.V.</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>636</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Apexmed International B.V.</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Apexmed International B.V.</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Apexmed International B.V.</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>637</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>APG Asset Management N.V.</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>APG Asset Management N.V.</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>APG Asset Management N.V.</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>638</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>APG Fondsenbedrijf</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>APG fund company</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>APG Fund Company</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>639</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>APG Groep N.V.</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>APG Group N.V.</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>APG Group N.V.</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>640</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>APL Logistics Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>APL Logistics Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>APL Logistics Europe B.V.</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>641</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>APM Terminals Maasvlakte II B.V.</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>APM Terminals Maasvlakte II B.V.</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>Terminales APM Maasvlakte II B.V.</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>642</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>APM Terminals Management B.V.</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>APM Terminals Management B.V.</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>APM Terminals Management B.V.</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>643</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Apo SHS B.V.</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>APO SHS B.V.</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>Apo SHS B.V.</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>644</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Apolix B.V.</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Apolix B.V.</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>Apolix B.V.</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>645</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Apollo Capital Solutions Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Apollo Capital Solutions Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>Apollo Capital Solutions Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>646</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Apollo Seiko Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Apollo Seiko Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>Apolo Seiko Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>647</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Apollo Tyres (Europe) B.V.</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>Apollo Tyres (Europe) B.V.</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>APOLLO TIRES (Europa) B.V.</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>648</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Apollo Tyres (NL) B.V.</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>Apollo Tyres (NL) B.V.</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>APOLLO TIRES (NL) B.V.</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>649</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Apollo Tyres Global R&amp;D B.V.</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Apollo Tyres Global R&amp;D B.V.</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>Apollo Tires Global R&amp;D B.V.</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>650</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Apotheek Jager Bruining B.V.</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>Pharmacy Jager Bruining B.V.</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>Farmacia Jager Bruining B.V.</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>651</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Appical B.V.</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Appical B.V.</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>APICAL B.V.</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>652</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Apple Benelux B.V.</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Apple Benelux B.V.</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>Apple Benelux B.V.</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>653</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Apple Inn Hotel B.V.</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>Apple Inn Hotel B.V.</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>Apple Inn Hotel B.V.</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>654</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Apple Retail Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Apple Retail Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>Apple Retail Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>655</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Applied Drone Innovations B.V.</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Applied Drone Innovations B.V.</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>Innovaciones de drones aplicados B.V.</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>656</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Applied Materials Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Applied Materials Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>Materiales aplicados Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>657</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Applied Medical Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Applied Medical Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>Europa médica aplicada B.V.</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>658</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Applied Micro Electronics "AME" B.V.</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Applied Micro Electronics "Ame" B.V.</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>Micro electrónica aplicada "AME" B.V.</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>659</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Applied Nanolayers B.V.</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Applied Nanolayers B.V.</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>Nanolayers aplicados B.V.</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>660</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Applied Principles B.V.</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>Applied Principles B.V.</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>Principios aplicados B.V.</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>661</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Applied Risk B.V.</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Applied Risk B.V.</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>Riesgo aplicado B.V.</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>662</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Applied Value Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Applied Value Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>Tecnologías de valor aplicado B.V.</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>663</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Applikon Biotechnology B.V.</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Applikon Biotechnology B.V.</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>Applikon Biotechnology B.V.</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>664</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Approba Executives Flecs B.V.</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Approba Executives Flecs B.V.</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>Ejecutivos de Aproba Flecs B.V.</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>665</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>AppSignal B.V.</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>AppSignal B.V.</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>AppSignal B.V.</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>666</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Apptitude B.V.</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Applitude B.V.</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>Aplicación B.V.</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>667</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>AppyThings B.V.</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>AppyThings B.V.</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>Appythings B.V.</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>668</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>APS Group B.V.</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>APS Group B.V.</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>APS Group B.V.</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>669</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>APS Uitzendburo B.V.</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>APS Uitzendburo B.V.</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>APS UITZENDBURO B.V.</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>670</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Aptiv Mexican Holdings (US) LLC</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>APTIV Mexican Holdings (US) LLC</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>Aptiv mexican Holdings (EE. UU.) LLC</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>671</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Aqana B.V.</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Aqana B.V.</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>AQANA B.V.</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>672</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>AQS European Real Estate Coöperatief U.A.</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>AQS European Real Estate Cooperative U.A.</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>AQS European Real Estate Cooperative U.A.</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>673</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>AQTIS Medical B.V.</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Aqtis Medical B.V.</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>Aqtis Medical B.V.</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>674</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Aqua Vision B.V.</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Aqua Vision B.V.</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>Aqua Vision B.V.</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>675</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>AquaBattery</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Aquabattery</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>Aguabatería</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>676</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Aquacare Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Aquacare Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>Aquacare Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>677</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Aqua-Spark Operating B.V.</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Aqua-Spark Operating B.V.</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>Aqua-Spark Operating B.V.</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>678</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Aquatic Drones B.V.</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Aquatic Drones B.V.</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>Drones acuáticos B.V.</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>679</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Aquent LLC</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Aquent LLC</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>Aquent LLC</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>680</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>AR Structural B.V.</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>AR Structural B.V.</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>AR estructural B.V.</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>681</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Araco International B.V.</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Araco International B.V.</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>Araco International B.V.</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>682</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>ARAG SE Nederland</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>ARAG SE Nederland</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>Arrag se nederland</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>683</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Aragen Life Sciences B.V.</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Araagen Life Sciences B.V.</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>Araagen Life Sciences B.V.</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>684</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Arai Helmet (Europe) B.V.</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>ARAI Helmet (Europe) B.V.</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>Casco Arai (Europa) B.V.</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>685</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Araido B.V.</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Araido B.V.</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>Araido B.V.</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>686</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>ARAM Technology Services</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Aram Technology Services</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>Servicios de tecnología ARAM</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>687</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Aramco Overseas Company B.V.</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Aramco Overseas Company B.V.</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>Aramco Overseas Company B.V.</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>688</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Aramex Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Aramex Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>Aramex Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>689</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Aratis B.V.</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Aratis B.V.</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>Aratis B.V.</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>690</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Aratis System Experts B.V.</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Aratis System Experts B.V.</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>Expertos del sistema Aratis B.V.</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>691</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Arauco Europe Coöperatief U.A.</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>ARAUCO Europe Co -operative U.A.</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>Arauco Europa Co -operative U.A.</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>692</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>ArboNed B.V.</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>ArboNed B.V.</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>B.V.</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>693</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>ARC Phone Accessories B.V.</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>ARC Phone Accessories B.V.</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>Accesorios para teléfonos ARC B.V.</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>694</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Arcadia Maritime Group B.V.</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Arcadia Maritime Group B.V.</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>Arcadia Maritime Group B.V.</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>695</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Arcadis Global B.V.</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Arcadis Global B.V.</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>Arcadis Global B.V.</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>696</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>ARCADIS N.V.</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Arcadis N.V.</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>Arcadis N.V.</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>697</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>ARCADIS Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Arcadis Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>Arcadis Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>698</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>ArcelorMittal Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>ArcelorMittal Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>ArcelorMittal Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>699</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>ArcelorMittal Projects Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>ArcelorMittal Projects Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>ArcelorMittal Projects Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>700</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Archer Daniels Midland Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Archer Daniels Midland Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>Archer Daniels Midland Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>701</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Archer Hotel Capital B.V.</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Archer Hotel Capital B.V.</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>Archer Hotel Capital B.V.</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>702</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Architechts N.V.</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Architechts N.V.</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>Architechts N.V.</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>703</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Architectenbureau Cepezed B.V.</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Architectural firm Cepezed B.V.</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>Sir de arquitectura Cepezed B.V.</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>704</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Architectenbureau Popma en ter Steege</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Architectural firm Popma and Ter Steege</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>Sir de arquitectura Popma y Ter Steege</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>705</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>ArchLynk Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Archlynk Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>Archlynk Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>706</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Arcus European Investment Manager Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Arcus European Investment Manager Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>Arcus European Investment Manager Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>707</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Arcus Infrastructure Services Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Arcus Infrastructure Services Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>Arcus Infraestructura Servicios de los Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>708</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Arcwide B.V.</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Arcwide B.V.</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>ARCWIDE B.V.</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>709</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Ardagh Glass Benelux</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Ardagh Glass Benelux</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>Ardagh Glass Benelux</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>710</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Ardagh Metal Beverage Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Ardagh Metal Beverage Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>Ardagh Bebida de metal Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>711</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Ardena Amsterdam B.V.</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Ardena Amsterdam B.V.</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>Ardena Amsterdam B.V.</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>712</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Ardena Oss B.V.</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Ardena Oss B.V.</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>Ardena OSS B.V.</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>713</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>AR-Development B.V.</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>AR-Development B.V.</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>AR-Desarrollo B.V.</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>714</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Ardos B.V.</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Ardos B.V.</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>Ardos B.V.</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>715</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Area of People B.V.</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Area of ​​People B.V.</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>Área de personas B.V.</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>716</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Arec Crop Protection B.V.</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Arec Crop Protection B.V.</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>Protección de cultivos AREC B.V.</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>717</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Arena Aviation Capital B.V.</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Arena Aviation Capital B.V.</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>Capital de Aviación Arena B.V.</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>718</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Arena Aviation Partners B.V.</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Arena Aviation Partners B.V.</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>Arena Aviation Partners B.V.</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>719</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Arep Accountants &amp; Belastingadviseurs B.V.</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>AREP Accountants &amp; Tax Advisors B.V.</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>Contadores y asesores fiscales de AREP B.V.</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>720</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Argent Energy Netherlands Holding B.V.</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Argent Energy Netherlands Holding B.V.</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>Argent Energy Países Bajos que tienen B.V.</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>721</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Argentex B.V.</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Argentex B.V.</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>Argentex B.V.</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>722</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Argentrade International B.V.</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Argentrade International B.V.</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>Argentrade International B.V.</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>723</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Argo Coral Maritime Ltd</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Argo Coral Maritime Ltd</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>Argo Coral Maritime Ltd</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>724</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Argo Design Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Argo Design Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>Argo Design Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>725</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>ARGO MOTOR SPARES B.V.</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>Argo Motor Spares B.V.</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>Argo Motor Posures B.V.</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>726</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Ariana Garden B.V.</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Ariana Garden B.V.</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>Ariana Garden B.V.</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>727</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Aristos B.V.</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Aristos B.V.</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>Aristos B.V.</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>728</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Arjo Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Arjo Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>Arjo Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>729</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>ARKEMA B.V.</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Arkema B.V.</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>Arkema B.V.</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>730</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Arkoil Technologies Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Arkoil Technologies Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>Arkoil Technologies Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>731</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Arkray Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>Arkray Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>Arkray Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>732</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Arktura B.V.</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Arktura B.V.</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>Arktura B.V.</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>733</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Arla Foods B.V.</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>Arla Foods B.V.</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>Arla Foods B.V.</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>734</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>ARLANXEO Holding B.V.</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>Arlanxeo Holding B.V.</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>Arlanxeo Holding B.V.</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>735</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>ARLANXEO Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>Arlanxeo Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>Arlanxeo Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>736</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Armada Consultants B.V.</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>Armada Consultants B.V.</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>Consultores de Armada B.V.</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>737</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Armflow Pump Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>Armflow Pump Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>Tecnologías de la bomba Armflow B.V.</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>738</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Arnold &amp; Siedsma B.V.</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>Arnold &amp; Siedsma B.V.</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>Arnold y Siedsma B.V.</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>739</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Aroundtown Management NL B.V.</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Aroundtown Management NL B.V.</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>ALEAMTOWN GESTION NL B.V.</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>740</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>ARQ Nationaal Psychotrauma Centrum</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>ARQ National Psychotrauma Center</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>Centro Nacional de Psicotrauma ARQ</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>741</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Array Industries Engineering B.V.</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>Array Industries Engineering B.V.</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>Array Industries Engineering B.V.</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>742</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>ARRIS Group B.V.</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>Arris Group B.V.</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>Arris Group B.V.</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>743</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>ARS Traffic &amp; Transport Technology B.V.</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Ars Traffic &amp; Transport Technology B.V.</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>ARS Traffic &amp; Transport Technology B.V.</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>744</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Artefact Benelux</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>Artefact Benelux</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>Artefacto benelux</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>745</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Artemis Bioservices B.V.</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>Artemis Bioservices B.V.</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>Artemis Bioservices B.V.</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>746</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>ArtEZ Hogeschool voor de Kunsten</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>Artez University of the Arts</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>Universidad de Artes de Artez</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>747</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Arthe Civil &amp; Structure B.V.</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>Arthe Civil &amp; Structure B.V.</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>Arthe Civil &amp; Structure B.V.</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>748</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Arthrex Distribution Hub EMEA B.V</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>Arthrex Distribution Hub EMEA B.V</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>Arthrex Distribution Hub EMEA B.V</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>749</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Arthrex Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Arthrex Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>Arthrex Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>750</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Arthur D. Little Benelux N.V.</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>Arthur D. Little Benelux N.V.</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>Arthur D. Little Benelux N.V.</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>751</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Arthur's Legal B.V.</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Arthur's Legal B.V.</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>Arthur's Legal B.V.</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>752</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Artificial Design</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>Artificial Design</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>Diseño artificial</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>753</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Artinis Medical Systems B.V.</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>Artinis Medical Systems B.V.</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>Artinis Medical Systems B.V.</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>754</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Artipoppe B.V.</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Artipoppe B.V.</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>Artipoppe B.V.</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>755</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Arts en Zorg B.V.</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Arts and Zorg B.V.</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>Artes y Zorg B.V.</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>756</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Artsen zonder Grenzen (Médecins Sans Frontières, Nederland)</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Doctors Without Borders (Médecins Sans Frontières, The Netherlands)</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>Doctores sin fronteras (Médecins Sans Frontières, Países Bajos)</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>757</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Arup B.V.</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>Arup B.V.</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>Arup B.V.</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>758</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Arval B.V.</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Arval B.V.</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>Arval B.V.</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>759</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Arval Benelux B.V.</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>Arval Benelux B.V.</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>Arval Benelux B.V.</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>760</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Arvato Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Arvato Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>Arvato Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>761</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Aryza B.V.</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Aryza B.V.</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>Aryza B.V.</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>762</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>ASA International N.V.</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>ASA International N.V.</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>ASA International N.V.</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>763</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>ASAHI INTECC EUROPE B.V.</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>Asahi Intecc Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>Asahi InteCC Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>764</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Asahi Tanker Co. , Ltd. Europe Office</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>Asahi Tanker Co., Ltd.Europe Office</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>Asahi Tanker Co., Ltd.Oficina de Europa</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>765</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>ASAMCO</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>Asamco</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>Asamco</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>766</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Asbuilt Solutions B.V.</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>Asbuilt Solutions B.V.</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>Soluciones asombradas B.V.</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>767</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Asc Academics B.V.</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>ASC Academics B.V.</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>ASC Académicos B.V.</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>768</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>ASCI Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>ASCI Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>Asci Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>769</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Ascom (Nederland) B.V.</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>Ascom (the Netherlands) B.V.</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>Ascom (Países Bajos) B.V.</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>770</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>ASE NL Service Center B.V.</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>ASE NL Service Center B.V.</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>ASE NL Centro de servicio B.V.</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>771</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Asfalt Productie Tiel (APT) B.V.</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>Asphalt Production Tiel (APT) B.V.</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>Producción de asfalto Tiel (APT) B.V.</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>772</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Ashland Industries Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>Ashland Industries Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>Ashland Industries Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>773</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Ashland Services</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>Ashland Services</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>Servicios de Ashland</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>774</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Asian Bistro Nijmegen</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>Asian Bistro Nijmegen</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>Bistro asiático nijmegen</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>775</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Asica Group B.V.</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>Asica Group B.V.</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>ASICA GRUPO B.V.</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>776</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>ASICS Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>Asics Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>ASICS Europe B.V.</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>777</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>ASICS Technology B.V.</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>Asics Technology B.V.</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>Tecnología ASICS B.V.</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>778</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Asimo Networks B.V.</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>ASIMO Networks B.V.</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>Asimo Networks B.V.</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>779</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Ask Community Systems B.V.</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>ASK Community Systems B.V.</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>Pregunte a Community Systems B.V.</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>780</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Ask Nicely B.V.</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>Ask Nicely B.V.</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>Pregunte bien B.V.</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>781</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Ask Phill B.V.</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>Ask Phill B.V.</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>Pregunte a Phill B.V.</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>782</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>ASL Dutch B.V.</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>ASL Dutch B.V.</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>ASL Dutch B.V.</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>783</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>ASL Global B.V.</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>ASL Global B.V.</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>ASL Global B.V.</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>784</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>ASM Europe BV</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>ASM Europe BV</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>ASM Europa bv</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>785</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>ASM International N.V.</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>ASM International N.V.</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>ASM International N.V.</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>786</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>ASM IP Holding B.V.</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>ASM IP Holding B.V.</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>ASM IP Holding B.V.</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>787</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>ASM Maritime B.V.</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>ASM Maritime B.V.</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>ASM Maritime B.V.</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>788</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>ASML Holding N.V.</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>ASML Holding N.V.</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>ASML Holding N.V.</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>789</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>ASML Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>ASML Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>ASML Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>790</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>ASML Trading B.V.</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>ASML Trading B.V.</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>ASML Trading B.V.</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>791</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>ASMPT ALSI B.V.</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>ASMPT ALSI B.V.</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>ASMPT alsi B.V.</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>792</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>ASP The Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>Asp The Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>ASP los Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>793</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Aspen Oss B.V.</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>Aspen Oss B.V.</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>Aspen OSS B.V.</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>794</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Aspentech Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>Aspentech Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>Aspentech Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>795</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Asperion Hosting B.V.</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>Asperion Hosting B.V.</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>ASPERion Hosting B.V.</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>796</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Aspire Systems B.V.</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>Aspire Systems B.V.</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>Aspire Systems B.V.</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>797</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>ASR Nederland N.V.</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>ASR Nederland N.V.</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>ASR Nederland N.V.</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>798</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>ASRock Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>Asrock Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>Asrock Europe B.V.</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>799</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Assai Software Services B.V.</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>Assai Software Services B.V.</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>Assai Software Services B.V.</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>800</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>Assemble 33 B.V.</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>Assemble 33 B.V.</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>Ensamblar 33 B.V.</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NED Registered Employers.xlsx
+++ b/NED Registered Employers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E801"/>
+  <dimension ref="A1:E901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20460,6 +20460,2506 @@
         </is>
       </c>
     </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>801</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Assembling Manufacturing &amp; Sourcing Group B.V.</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>Assembling Manufacturing &amp; Sourcing Group B.V.</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>Ensamblar Grupo de fabricación y abastecimiento B.V.</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>802</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Assent Compliance Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>Assent Compliance Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>Cumplimiento de asentimiento Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>803</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Assertive Yield B.V.</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>Assertive Yield B.V.</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>Rendimiento asertivo B.V.</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>804</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Asset Control International B.V.</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>Asset Control International B.V.</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>Asset Control International B.V.</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>805</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Asset Insight B.V.</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>Asset Insight B.V.</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>Insight de activos B.V.</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>806</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Asset People B.V.</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>Asset People B.V.</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>People de activos B.V.</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>807</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>ASSET Rail B.V.</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>Asset Rail B.V.</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>Ferrocarril de activos B.V.</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>808</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>AssistiveWare B.V.</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>Assistiveware B.V.</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>Asistente B.V.</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>809</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>AssistYou Group B.V.</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>Assistyou Group B.V.</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>ASUSTYOU GRUPO B.V.</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>810</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Astellas B.V.</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>Astellas B.V.</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>Astellas B.V.</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>811</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Astellas Pharma Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>Astellas Pharma Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>Astellas Pharma Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>812</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Aster Technology Holland B.V.</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>Aster Technology Holland B.V.</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>Aster Technology Holanda B.V.</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>813</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Asteria Food B.V.</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>Asteria Food B.V.</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>Asteria Food B.V.</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>814</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Astrata Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>Astrata Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>Astrata Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>815</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>AstraZeneca B.V.</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>AstraZeneca B.V.</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>AstraZeneca B.V.</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>816</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Astronergy Solar Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>Astronergy Solar Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>Astronergy Solar Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>817</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>ASUS Holland B.V.</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>Asus Holland B.V.</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>Asus Holland B.V.</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>818</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Asus Technology Holland</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>Asus Technology Holland</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>Asus Technology Holanda</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>819</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>AT&amp;T Global Network Services Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>AT&amp;T Global Network Services Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>AT&amp;T Global Network Services Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>820</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Atabix Solutions B.V.</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>Atabix Solutions B.V.</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>Atabix Solutions B.V.</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>821</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>ATAG Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>ATAG Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>ATAG Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>822</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>ATC Europe Coöperatief U.A.</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>ATC Europe Cooperative U.A.</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>ATC Europa Cooperative U.A.</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>823</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>ATC International Coöperatief U.A.</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>ATC International Cooperative U.A.</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>ATC International Cooperative U.A.</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>824</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>ATC International Financing B.V.</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>ATC International Finance B.V.</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>ATC International Finance B.V.</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>825</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Atelier Eindhoven B.V.</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>Atelier Eindhoven B.V.</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>Atelier Eindhoven B.V.</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>826</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>ATENSUS Detachering B.V.</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>Atensus Detachering B.V.</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>Atensus desprendimiento B.V.</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>827</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>ATG Engineering B.V.</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>ATG Engineering B.V.</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>Ingeniería ATG B.V.</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>828</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>ATG Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>ATG Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>ATG Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>829</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>AthenaStudies B.V.</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>Athena Studies B.V.</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>Estudios de Athena B.V.</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>830</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>Athlon Car Lease International B.V.</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>Athlon Car Lease International B.V.</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>Athlon Car Lease International B.V.</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>831</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>Athlon Car Lease Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>Athlon Car Lease Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>Athlon Car Lease Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>832</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>Athom B.V.</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>Athom B.V.</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>Athom B.V.</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>833</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Athora Netherlands N.V.</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>Athora Netherlands N.V.</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>Athora Países Bajos N.V.</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>834</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Atlanship S.A.</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>Atlanship S.A.</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>Atlanship S.A.</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>835</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Atlanta Field B.V.</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>Atlanta Field B.V.</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>Atlanta Field B.V.</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>836</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Atlantic Integrated Freight B.V.</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>Atlantic Integrated Freight B.V.</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>Atlantic Integrated Freight B.V.</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>837</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Atlantic Logistics B.V.</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>Atlantic Logistics B.V.</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>Atlantic Logistics B.V.</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>838</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>Atlantis Solutions B.V.</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>Atlantis Solutions B.V.</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>Atlantis Solutions B.V.</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>839</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>Atlas Copco Internationaal B.V.</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>Atlas Copco International B.V.</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>Atlas Copco International B.V.</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>840</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Atlas Global Energy B.V.</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>Atlas Global Energy B.V.</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>Atlas Global Energy B.V.</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>841</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Atlas Inexco Contractors B.V.</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>Atlas Inexco Contractors B.V.</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>ATLAS INEXCO Contratistas B.V.</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>842</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Atlas International B.V.</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>Atlas International B.V.</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>Atlas International B.V.</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>843</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Atlas Networks B.V.</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>Atlas Networks B.V.</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>Atlas Networks B.V.</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>844</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>Atlas Services Group</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>Atlas Services Group</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>Grupo de servicios de Atlas</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>845</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>Atlas Services Group Energy B.V.</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>Atlas Services Group Energy B.V.</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>Atlas Services Group Energy B.V.</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>846</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>Atlas Services Group Merchant B.V.</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>Atlas Services Group Merchant B.V.</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>Atlas Services Group Merchant B.V.</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>847</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Atlassian B.V.</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>Atlassian B.V.</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>Atlassian B.V.</t>
+        </is>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>848</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>AtMall B.V.</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>Atmall B.V.</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>Atmall B.V.</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>849</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>ATMOS UAV B.V.</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>Atmos UAV B.V.</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>Atmos UAV B.V.</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>850</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>ATO-gear B.V.</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>ATO-Gear B.V.</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>ATO-GAR B.V.</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>851</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>ATOS INTERNATIONAL B.V.</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>Atos International B.V.</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>Atos International B.V.</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>852</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Atos International Global Functions B.V.</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>Atos International Global Functions B.V.</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>ATOS International Global Functions B.V.</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>853</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Atos Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>Atos Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>Atos Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>854</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Atotech B.V.</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>Atotech B.V.</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>Atotech B.V.</t>
+        </is>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>855</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Atradius</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>Atradius</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>Atradio</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>856</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Atradius Collections B.V.</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>Atradius Collections B.V.</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>Colecciones de Atradius B.V.</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>857</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>AtriCure Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>Atricure Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>Atricure Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>858</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>ATS Global B.V.</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>ATS Global B.V.</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>ATS Global B.V.</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>859</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>ATS Group Holding B.V.</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>ATS Group Holding B.V.</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>ATS Group Holding B.V.</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>860</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Atterbury Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>Atterbury Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>Atterbury Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>861</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Attrace B.V.</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>Attrace B.V.</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>Attrace B.V.</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>862</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Audacity Capital Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>Audacity Capital Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>Audacity Capital Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>863</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Audibene B.V.</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>Audibene B.V.</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>Audibeno B.V.</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>864</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Audiokinetic B.V.</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>Audiokinetic B.V.</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>Audiokinetic B.V.</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>865</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Audio-Technica Benelux B.V.</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>Audio-Technica Benelux B.V.</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>Audio-Technica Benelux B.V.</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>866</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>AugmedIT B.V.</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>Augmedit B.V.</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>AugMedit B.V.</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>867</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Augusta Aiken &amp; Associates B.V.</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>Augusta Aiken &amp; Associates B.V.</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>Augusta Aiken &amp; Associates B.V.</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>868</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>AUO Display Plus Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>AUO Display Plus Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>AUO Display Plus Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>869</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>AUO Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>AUO Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>AUO Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>870</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Aura B.V.</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>Aura B.V.</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>Aura B.V.</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>871</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Aurea Imaging B.V.</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>Aurea Imaging B.V.</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>Imágenes de Aurea B.V.</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>872</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>AURELIUS Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>Aurelius Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>Aurelius Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>873</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>Auren Staffing Amersfoort B.V.</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>Auren Staffing Amersfoort B.V.</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>Auren Staffing Amersfoort B.V.</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>874</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>Aurora Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>Aurora Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>Aurora Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>875</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>Aurora Technology B.V.</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>Aurora Technology B.V.</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>Aurora Technology B.V.</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>876</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>Aurubis Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>Aurubis Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>Aurubis Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>877</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>Ausnutria Operations B.V.</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>Ausnutria Operations B.V.</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>Operaciones de Ausnutria B.V.</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>878</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Autarco B.V.</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>Autarco B.V.</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>Autarco B.V.</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>879</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>Autel Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>Autel Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>Autel Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>880</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Autisme Centrum Groei! B.V.</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>Autism Center Growth!E.g.</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>¡Crecimiento del centro de autismo!P.ej.</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>881</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Auto Camper Service International Holding B.V.</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>Auto Camper Service International Holding B.V.</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>Auto Camper Service International Holding B.V.</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>882</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Auto Kökcü B.V.</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>Auto Kökcü B.V.</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>Auto Kökcü B.V.</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>883</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>AutoBinck Group N.V.</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>Autobinck Group N.V.</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>Autobinck Group N.V.</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>884</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Autodesk B.V.</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>Autodesk B.V.</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>Autodesk B.V.</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>885</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>AutoFacets B.V.</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>Autofacets B.V.</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>Autofacets B.V.</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>886</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>AutoForm Engineering B.V.</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>Autoform Engineering B.V.</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>Ingeniería de AutoFormas B.V.</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>887</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>Autoglas D &amp; K B.V.</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>Autoglas D&amp;K B.V.</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>Autoglas D&amp;K B.V.</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>888</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>Automotive Mediaventions B.V.</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>Automotive Mediavents B.V.</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>Automotive Mediavents B.V.</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>889</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>Autoriteit Consument en Markt</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>Consumer and Market Authority</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>Autoridad de consumo y mercado</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>890</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>AutoScout24 Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>AutoScout24 Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>AutoScOut24 Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>891</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>Autotelex B.V.</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>Autotelex B.V.</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>AutoTelex B.V.</t>
+        </is>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>892</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>AV Flexologic B.V.</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>AV Flexologic B.V.</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>AV Flexologic B.V.</t>
+        </is>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>893</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>Avago Technologies Holdings B.V.</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>Avago Technologies Holdings B.V.</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>Avago Technologies Holdings B.V.</t>
+        </is>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>894</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>Avanade Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>Avanade Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>Avanade Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>895</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>Avanca International B.V.</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>Avanca International B.V.</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>Avanca International B.V.</t>
+        </is>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>896</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Avania B.V.</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>Avania B.V.</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>Avania B.V.</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>897</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Avans Hogeschool</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>Avans Hogeschool</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>Avans Hogeschool</t>
+        </is>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>898</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>Avans Hogeschool B.V.</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>Avans Hogeschool B.V.</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>Avans Hogeschool B.V.</t>
+        </is>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>899</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>Avant Arte B.V.</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>Avant Arte B.V.</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>Avant Arte B.V.</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>900</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>Avantes B.V.</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>Avantes B.V.</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>Avantes B.V.</t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NED Registered Employers.xlsx
+++ b/NED Registered Employers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E901"/>
+  <dimension ref="A1:E1101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22960,6 +22960,5006 @@
         </is>
       </c>
     </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>901</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Avantium Chemicals B.V.</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>Avantium Chemicals B.V.</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>Avantium Chemicals B.V.</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>902</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>Avantium Renewable Polymers B.V.</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>Avantium Renewable Polymers B.V.</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>Avantium Polímeros renovables B.V.</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>903</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>Avantium Support B.V.</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>Avantium Support B.V.</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>Avantium Support B.V.</t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>904</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>Avast Software B.V.</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>Avast Software B.V.</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>AVAST SOFTWARE B.V.</t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>905</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>Avaya Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Avaya Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>Avaya Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>906</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>Aveco De Bondt B.V.</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>Aveco De Bondt B.V.</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>Aveco de Bondt B.V.</t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>907</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Aventiss Europe Engineering</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>Aventiss Europe Engineering</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>Ingeniería de Aventiss Europe</t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>908</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>AvePoint Deutschland GmbH</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>Avepoint Deutschland GmbH</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>AvePoint Deutschland GmbH</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>909</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>Avery Dennison Hong Kong B.V.</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Avery Dennison Hong Kong B.V.</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>Avery Dennison Hong Kong B.V.</t>
+        </is>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>910</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>Avery Dennison Materials Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>Avery Dennison Materials Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>Avery Dennison Materials Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>911</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>Avery Dennison Materials Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>Avery Dennison Materials Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>Avery Dennison Materials Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>912</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>Avery Dennison Netherlands Investment II B.V.</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>Avery Dennison Netherlands Investment II B.V.</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>Avery Dennison Países Bajos Inversión II B.V.</t>
+        </is>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>913</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>Avery Dennison Treasury Management B.V.</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>Avery Dennison Treasury Management B.V.</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>Avery Dennison Treasury Management B.V.</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>914</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>AVEVA Select Benelux B.V.</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>AVEVA Select Benelux B.V.</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>AVEVA SELECT BENELUX B.V.</t>
+        </is>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>915</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>AVEVA Software Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>AVEVA Software Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>AVEVA SOFTWARE NATOS BAJOS B.V.</t>
+        </is>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>916</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>Aveza Industrial Automation</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>Aveza Industrial Automation</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>Automatización industrial de Aveza</t>
+        </is>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>917</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>AVH Dairy Trade B.V.</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>AVH Dairy Trade B.V.</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>AVH Comercio de lácteos B.V.</t>
+        </is>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>918</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>Aviaco Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>Aviaco Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>Aviaco Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>919</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>Aviator Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>Aviator Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>Aviador Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>920</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>Avient Colorants Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>Avient Colorants Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>Avient Colorants Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>921</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>Avignon Capital Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>Avignon Capital Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>Avignon Capital Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>922</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>Aviko B.V.</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>Aviko B.V.</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>Aviko B.V.</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>923</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>Avion B.V.</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Avion B.V.</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>Avion B.V.</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>924</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>Avisi Cloud Services B.V.</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>Avisi Cloud Services B.V.</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>Avisi Cloud Services B.V.</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>925</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>Avit Group B.V.</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>Avit Group B.V.</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>Avit Group B.V.</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>926</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>Avito Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>Avito Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>Avito Technologies B.V.</t>
+        </is>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>927</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>Aviva Investors Luxembourg - Netherlands branch</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>Aviva Investors Luxembourg - Netherlands Branch</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>Aviva Investores Luxemburgo - Sucursal de los Países Bajos</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>928</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>Avivia B.V.</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>Avivia B.V.</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>Avivia B.V.</t>
+        </is>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>929</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>AVR-Afvalverwerking B.V.</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>AVR waste processing e.g.</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>Procesamiento de residuos de AVR, p.</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>930</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>Avular Innovations B.V.</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>Avular Innovations B.V.</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>Innovaciones Avulares B.V.</t>
+        </is>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>931</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>Avy B.V.</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>Avy B.V.</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>Avy B.V.</t>
+        </is>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>932</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>AWA Alexander Watson Associates B.V.</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>AWA Alexander Watson Associates B.V.</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>AWA Alexander Watson Associates B.V.</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>933</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>AWA Conferences B.V.</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>AWA Conferences B.V.</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>Conferencias de AWA B.V.</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>934</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>AWAREWAYS B.V.</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>Awareways B.V.</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>ABSOKWAY B.V.</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>935</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>AWIN B.V.</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>Awin B.V.</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>Awin B.V.</t>
+        </is>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>936</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>AWL-Techniek B.V.</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>AWL-Techniek B.V.</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>AWL-Techniek B.V.</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>937</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>AXA Real Estate Investment Managers Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>AXA Real Estate Investment Managers Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>AXA Real Estate Investment Managers Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>938</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>AXELERA AI B.V.</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>Axelera Ai B.V.</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>Axelera AI B.V.</t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>939</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>Axia Power Holdings B.V.</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>Axia Power Holdings B.V.</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>Axia Power Holdings B.V.</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>940</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>Axia Vegetable Seeds B.V.</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>Axia Vegetable Seeds B.V.</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>Semillas de vegetales axia B.V.</t>
+        </is>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>941</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>Axians Communication Solutions B.V.</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Axians Communication Solutions B.V.</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>Soluciones de comunicación de Axians B.V.</t>
+        </is>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>942</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>AxiCom B.V.</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>Axicom B.V.</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>Axicom B.V.</t>
+        </is>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>943</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>Axign B.V.</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>Axign B.V.</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>Axign B.V.</t>
+        </is>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>944</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>Axion Biosystems B.V.</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>Axion Biosystems B.V.</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>Axion Biosystems B.V.</t>
+        </is>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>945</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>Axon Public Safety B.V.</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>Axon Public Safety B.V.</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>Axon Safety B.V.</t>
+        </is>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>946</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>AxonIQ B.V.</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>Axoniq B.V.</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>Axoniq B.V.</t>
+        </is>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>947</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>Axoy Holding B.V.</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>Axoy Holding B.V.</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>Axoy Holding B.V.</t>
+        </is>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>948</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>Axual B.V.</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>Axual B.V.</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>Axual B.V.</t>
+        </is>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>949</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>Axus Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>Axus Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>Axus Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>950</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>Axxemble B.V.</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>Axxemble B.V.</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>Axxemble B.V.</t>
+        </is>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>951</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>Ayurveda Specialist B.V.</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>Ayurveda Specialist B.V.</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>Especialista en Ayurveda B.V.</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>952</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>Azerion Productions E-Business B.V.</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>Azerion Productions E-Business B.V.</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>Azerion Productions E-Business B.V.</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>953</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>Azerion Productions GD B.V.</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>Azerion Productions GD B.V.</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>Azerion Productions GD B.V.</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>954</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>Azerion Productions Services BV</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>Azerion Productions Services BV</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>Azerion Productions Services bv</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>955</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>Azerion Services B.V.</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>Azerion Services B.V.</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>Azerion Services B.V.</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>956</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>Azerion Sports B.V.</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>Azerion Sports B.V.</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>Azerion Sports B.V.</t>
+        </is>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>957</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>Azerion Tech Holding B.V.</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>Azerion Tech Holding B.V.</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>Azerion Tech Holding B.V.</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>958</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>Azerion Technology B.V.</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>Azerion Technology B.V.</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>Azerion Technology B.V.</t>
+        </is>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>959</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>Aziobot B.V.</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>Asiobot B.V.</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>Asiobot B.V.</t>
+        </is>
+      </c>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>960</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>AZZ WSI B.V.</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>AZZ WSI B.V.</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>Azz WSI B.V.</t>
+        </is>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>961</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>B &amp; C International B.V.</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>B&amp;C International B.V.</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>B&amp;C International B.V.</t>
+        </is>
+      </c>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>962</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>B &amp; S International B.V.</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>B&amp;S International B.V.</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>B&amp;S International B.V.</t>
+        </is>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>963</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>B&amp;C Lifestyle B.V.</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>B&amp;C Lifestyle B.V.</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>Estilo de vida B&amp;C B.V.</t>
+        </is>
+      </c>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>964</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>B&amp;F Palace Amsterdam B.V.</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>B&amp;F Palace Amsterdam B.V.</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>B &amp; F Palace Amsterdam B.V.</t>
+        </is>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>965</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>B. Building Business B.V.</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>B. Building Business B.V.</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>B. Building Business B.V.</t>
+        </is>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>966</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>B. Futurist B.V.</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>B. Futurist B.V.</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>B. Futurista B.V.</t>
+        </is>
+      </c>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>967</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>B.T.H. Service B.V.</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>B.T.H.Service B.V.</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>B.T.H.Servicio B.V.</t>
+        </is>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>968</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>B.V. Alabastine (Holland)</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>E.g.Alabastine (Holland)</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>P.ej.Alabastina (Holanda)</t>
+        </is>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>969</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>B.V. Algemeen Nederlands Persbureau ANP</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>E.g.General Dutch press agency ANP</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>P.ej.Agencia de prensa holandesa general ANP</t>
+        </is>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>970</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>B.V. Arrow Electronics DLC</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>E.g.Arrow Electronics DLC</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>P.ej.Flecha Electronics DLC</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>971</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>B.V. Chiropractie Rugcentra A.B. van Beest D.C.</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>E.g.Chiropractie Back Centers A.B.van Beest D.C.</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>P.ej.Chiropractie Back Centers A.B.Van Beest D.C.</t>
+        </is>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>972</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>B.V. Design-Production Link "D.P.L."</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>E.g.Design-Production Link "D.P.L."</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>P.ej.Enlace de producción de diseño "D.P.L."</t>
+        </is>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>973</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>B.V. Rubberfabriek "Wittenburg"</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>E.g.Rubber factory "Wittenburg"</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>P.ej.Fábrica de goma "Wittenburg"</t>
+        </is>
+      </c>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>974</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>B.V. Systemation AES</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>E.g.Systemation AES</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>P.ej.Sistemation AES</t>
+        </is>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>975</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>B.V. Twentsche Kabelfabriek</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>E.g.Twentsche Kabelfabriek</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>P.ej.Twentsche Kabelfabriek</t>
+        </is>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>976</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>B.V. Vega Meet- en Regeltechniek</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>E.g.Vega Measurement and Control Technology</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>P.ej.Tecnología de medición y control de Vega</t>
+        </is>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>977</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>B.V. VITESSE</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>E.g.Vitesse</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>P.ej.Vités</t>
+        </is>
+      </c>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>978</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>B+B Vakmedianet Groep B.V.</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>B+B Vakmedianet Groep B.V.</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>B+B VAKMEDIANET GROEP B.V.</t>
+        </is>
+      </c>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>979</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>B2C Europe Support B.V.</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>B2C Europe Support B.V.</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>B2C Europa Support B.V.</t>
+        </is>
+      </c>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>980</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>B4C Markets B.V.</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>B4C Markets B.V.</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>B4C Mercados B.V.</t>
+        </is>
+      </c>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>981</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>Baat accountants en adviseurs</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>Baat accountants and advisers</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>Contadores y asesores de Baat</t>
+        </is>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>982</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>Baat Medical Products B.V.</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>Baat Medical Products B.V.</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>Baat Medical Products B.V.</t>
+        </is>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>983</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>Babysits B.V.</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Babysits B.V.</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>Niños B.V.</t>
+        </is>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>984</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>Bac B.V.</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>BAC B.V.</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>BAC B.V.</t>
+        </is>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>985</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>Bacardi-Martini B.V.</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Bacardi-Martini B.V.</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>Bacardi-Martini B.V.</t>
+        </is>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>986</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>Backbase B.V.</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Backbase B.V.</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>Backbase B.V.</t>
+        </is>
+      </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>987</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>Backbase Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>Backbase Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>Backbase Europe B.V.</t>
+        </is>
+      </c>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>988</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>Backbase R&amp;D B.V.</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>Backbase R&amp;D B.V.</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>Backbase I + D B.V.</t>
+        </is>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>989</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>Backbase Services B.V.</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>Backbase Services B.V.</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>Servicios Backbase B.V.</t>
+        </is>
+      </c>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>990</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>BackOffice Associates NL B.V.</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>BackOffice Associates NL B.V.</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>Backoffice Associates NL B.V.</t>
+        </is>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>991</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>Badenoch + Clark B.V.</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>Badenoch + Clark B.V.</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>Badenoch + Clark B.V.</t>
+        </is>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>992</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>Baeken B.V.</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>Baeken B.V.</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>Baeken B.V.</t>
+        </is>
+      </c>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>993</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>BAF Group B.V.</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>Baf Group B.V.</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>Grupo BAF B.V.</t>
+        </is>
+      </c>
+      <c r="E994" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>994</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>Baffinland Iron Mines Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>Baffinland Iron Mines Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>Baffinland Minas de hierro Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>995</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>Baggerbedrijf De Boer</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>Dredging company De Boer</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>Compañía de dragado de Boer</t>
+        </is>
+      </c>
+      <c r="E996" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>996</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>Baggermaatschappij Boskalis B.V.</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>Dredging company Boskalis B.V.</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>Drakging Company Boskalis B.V.</t>
+        </is>
+      </c>
+      <c r="E997" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>997</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>Bagira Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>Bagira Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
+          <t>Bagira Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E998" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>998</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>Bain &amp; Company Netherlands LLC</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>Bain &amp; Company Netherlands LLC</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr">
+        <is>
+          <t>Bain &amp; Company Países Bajos LLC</t>
+        </is>
+      </c>
+      <c r="E999" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>Baker &amp; McKenzie Amsterdam N.V.</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>Baker &amp; McKenzie Amsterdam N.V.</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>Baker y McKenzie Amsterdam N.V.</t>
+        </is>
+      </c>
+      <c r="E1000" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>Baker Atlas</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>Baker Atlas</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>Baker Atlas</t>
+        </is>
+      </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>Baker Hughes Energy International B.V.</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>Baker Hughes Energy International B.V.</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>Baker Hughes Energy International B.V.</t>
+        </is>
+      </c>
+      <c r="E1002" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>Baker Hughes Reservoir Software B.V.</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>Baker Hughes Reservoir Software B.V.</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>Baker Hughes Reservoir Software B.V.</t>
+        </is>
+      </c>
+      <c r="E1003" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>Baker Tilly (Netherlands) N.V.</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>Baker Tilly (Netherlands) N.V.</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>Baker Tilly (Países Bajos) N.V.</t>
+        </is>
+      </c>
+      <c r="E1004" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>BakerCorp, a United Rentals Company</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>Bakercorp, A United Rentals Company</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>BakerCorp, una compañía de alquileres unidos</t>
+        </is>
+      </c>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>Bakken &amp; Bæck B.V.</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>Baking &amp; Bæck B.V.</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>Horneado y Bæck B.V.</t>
+        </is>
+      </c>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>Bakker Centrale Inkoop B.V.</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>Bakker Central Purchasing B.V.</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>Compras Central de Bakker B.V.</t>
+        </is>
+      </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>Bakker Magnetics B.V.</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>Bakker Magnetics B.V.</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>Bakker Magnetics B.V.</t>
+        </is>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>Bakker Repair B.V.</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>Bakker Repair B.V.</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>Bakker Repair B.V.</t>
+        </is>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>Bakker Sliedrecht Electro Industrie B.V.</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>Bakker Sliedrecht Electro Industrie B.V.</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>Bakker Sliedrecht Electro Industrie B.V.</t>
+        </is>
+      </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>Bakker Tandheelkunde &amp; Orthodontie</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>Bakker Dentistry &amp; Orthodontics</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>Bakker Dentistry &amp; Orthodontics</t>
+        </is>
+      </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>Bakkersteam Services B.V.</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>Bakkersteam Services B.V.</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>Bakkersteam Services B.V.</t>
+        </is>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>Balance Ervaring op Projectbasis B.V.</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>Balance experience on Project -Basis B.V.</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>Experiencia de equilibrio en Project -Basis B.V.</t>
+        </is>
+      </c>
+      <c r="E1013" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>Balanced Force B.V.</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>Balanced Force B.V.</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>Fuerza equilibrada B.V.</t>
+        </is>
+      </c>
+      <c r="E1014" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>Balemaster Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>Balemaster Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>Balemaster Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E1015" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>Ballast Nedam Bouw &amp; Ontwikkeling</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>Ballast Nedam Bouw &amp; Development</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>Ballast Nedam Bouw &amp; Development</t>
+        </is>
+      </c>
+      <c r="E1016" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>Ballast Nedam Industriebouw B.V.</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>Ballast Nedam Industriebouw B.V.</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>Ballast Nedam Industriebouw B.V.</t>
+        </is>
+      </c>
+      <c r="E1017" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>Ballast Nedam Infra B.V.</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>Ballast Nedam Infra B.V.</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>Ballast Nedam Infra B.V.</t>
+        </is>
+      </c>
+      <c r="E1018" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>Ballerton B.V.</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>Ballerton B.V.</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>Ballerton B.V.</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>BALR B.V.</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>Balr B.V.</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>Balr B.V.</t>
+        </is>
+      </c>
+      <c r="E1020" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>Baluster Care B.V.</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>Baluster Care B.V.</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>Baluster Care B.V.</t>
+        </is>
+      </c>
+      <c r="E1021" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>BAM Bouw en Techniek B.V.</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>BAM Bouw en Techniek B.V.</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>Bam Bouw En Techniek B.V.</t>
+        </is>
+      </c>
+      <c r="E1022" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>BAM Energie &amp; Water West B.V.</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>BAM Energie &amp; Water West B.V.</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>Bam Energie &amp; Water West B.V.</t>
+        </is>
+      </c>
+      <c r="E1023" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>BAM Groep Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>BAM Groep Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>Bam Groep Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E1024" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>BAM Infraconsult B.V.</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>BAM Infraconsult B.V.</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>BAM Infraconsult B.V.</t>
+        </is>
+      </c>
+      <c r="E1025" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>BAM International B.V.</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>BAM International B.V.</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>BAM International B.V.</t>
+        </is>
+      </c>
+      <c r="E1026" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>BAM Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>BAM Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>Bam Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E1027" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>BAM Specials B.V.</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>BAM Specials B.V.</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>Especiales BAM B.V.</t>
+        </is>
+      </c>
+      <c r="E1028" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>Bambelo B.V.</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>Bambelo B.V.</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>Bambelo B.V.</t>
+        </is>
+      </c>
+      <c r="E1029" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>Bambi Belt B.V.</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>Bambi Belt B.V.</t>
+        </is>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>Bambi Belt B.V.</t>
+        </is>
+      </c>
+      <c r="E1030" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>Bambi Belt Holding B.V.</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>Bambi Belt Holding B.V.</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>Bambi Belt Holting B.V.</t>
+        </is>
+      </c>
+      <c r="E1031" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>Bambooder Biobased Fibers B.V.</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>Bamoboder Biobased Fibers B.V.</t>
+        </is>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>Bamoboder fibras biobológicas B.V.</t>
+        </is>
+      </c>
+      <c r="E1032" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>Banco Santander, S.A., Amsterdam Branch</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>Banco Santander, S.A., Amsterdam Branch</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>Banco Santander, S.A., Amsterdam Branch</t>
+        </is>
+      </c>
+      <c r="E1033" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>Bang! Media Group B.V.</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>Bang!Media Group B.V.</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>¡Estallido!Grupo de medios B.V.</t>
+        </is>
+      </c>
+      <c r="E1034" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>Banijay Benelux Holding B.V.</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>Banijay Benelux Holding B.V.</t>
+        </is>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>Banijay Benelux Holding B.V.</t>
+        </is>
+      </c>
+      <c r="E1035" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>Bank of Beijing</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>Bank of Beijing</t>
+        </is>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>Banco de Beijing</t>
+        </is>
+      </c>
+      <c r="E1036" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>Bank of China (Europe) S.A. Rotterdam Branch</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>Bank of China (Europe) S.A.Rotterdam Branch</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>Banco de China (Europa) S.A.Rama de Rotterdam</t>
+        </is>
+      </c>
+      <c r="E1037" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>Bannerboy B.V.</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>Bannerboy B.V.</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>Bannerboy B.V.</t>
+        </is>
+      </c>
+      <c r="E1038" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>Bannerwise B.V.</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>Bannerwise B.V.</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>Bannwise B.V.</t>
+        </is>
+      </c>
+      <c r="E1039" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>Bannink Accountants en Belastingadviseurs</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>Bannink Accountants and Tax Advisors</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>Contadores y asesores fiscales de Bannink</t>
+        </is>
+      </c>
+      <c r="E1040" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>Baosen Suntop Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>Baosen Suntop Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>Baosen Suntop Europe B.V.</t>
+        </is>
+      </c>
+      <c r="E1041" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>Barak Capital Market Making B.V.</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>Barak Capital Market Making B.V.</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>Barak Capital Market Making B.V.</t>
+        </is>
+      </c>
+      <c r="E1042" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>Barclays Bank Ireland Plc, Netherlands branch</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>Barclays Bank Ireland PLC, Netherlands Branch</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>Barclays Bank Ireland Plc, sucursal de los Países Bajos</t>
+        </is>
+      </c>
+      <c r="E1043" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>BARCODE Architects B.V.</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>Barcode Architects B.V.</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>Arquitectos de código de barras B.V.</t>
+        </is>
+      </c>
+      <c r="E1044" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>Barena Europe B.V.</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>Barena Europe B.V.</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>Barena Europa B.V.</t>
+        </is>
+      </c>
+      <c r="E1045" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>Barentz Commodities B.V.</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>Barentz Commodities B.V.</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>Barentz Commodities B.V.</t>
+        </is>
+      </c>
+      <c r="E1046" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>Barentz Holding B.V.</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>Barentz Holding B.V.</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>Barentz Holding B.V.</t>
+        </is>
+      </c>
+      <c r="E1047" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>Barla Food B.V.</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>Barla Food B.V.</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>Barla Food B.V.</t>
+        </is>
+      </c>
+      <c r="E1048" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>Barry Callebaut Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>Barry Callebaut Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>Barry Callebaut Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E1049" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>Barsan Global Logistics B.V.</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>Barsan Global Logistics B.V.</t>
+        </is>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>Barsan Global Logistics B.V.</t>
+        </is>
+      </c>
+      <c r="E1050" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>Barth Industrial Automation B.V.</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>Barth Industrial Automation B.V.</t>
+        </is>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>Barth Industrial Automation B.V.</t>
+        </is>
+      </c>
+      <c r="E1051" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>BAS Mining Trucks B.V.</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>Bas Mining Trucks B.V.</t>
+        </is>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>Bas Mining Trucks B.V.</t>
+        </is>
+      </c>
+      <c r="E1052" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>BAS Parts &amp; Tyres B.V.</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>Bas Parts &amp; Tyres B.V.</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>BAS Parts &amp; Tires B.V.</t>
+        </is>
+      </c>
+      <c r="E1053" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>BAS Truck Center B.V.</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>Bas Truck Center B.V.</t>
+        </is>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>Centro de camiones BAS B.V.</t>
+        </is>
+      </c>
+      <c r="E1054" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>BAS Uitzenden en ZZP B.V.</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>Bas broadcast and ZZP B.V.</t>
+        </is>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>BAS Broadcast y ZZP B.V.</t>
+        </is>
+      </c>
+      <c r="E1055" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>BAS World B.V.</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>Bas World B.V.</t>
+        </is>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>BAS World B.V.</t>
+        </is>
+      </c>
+      <c r="E1056" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>Base Cyber Security B.V.</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>Base Cyber ​​Security B.V.</t>
+        </is>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>Base Cyber ​​Security B.V.</t>
+        </is>
+      </c>
+      <c r="E1057" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>Baseblue B.V.</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>Baseblue B.V.</t>
+        </is>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>BaseBlue B.V.</t>
+        </is>
+      </c>
+      <c r="E1058" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>BaseClear B.V.</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>Baseclear B.V.</t>
+        </is>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>Baseclear B.V.</t>
+        </is>
+      </c>
+      <c r="E1059" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>Baseflow B.V.</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>Baseeflow B.V.</t>
+        </is>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>Baseeflew B.V.</t>
+        </is>
+      </c>
+      <c r="E1060" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>Basel Life Niederlande I B.V.</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>Basel Life Niederlande I B.V.</t>
+        </is>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>Vida de Basilea Niederdo I B.V.</t>
+        </is>
+      </c>
+      <c r="E1061" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Basell Sales &amp; Marketing Company B.V.</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>Basell Sales &amp; Marketing Company B.V.</t>
+        </is>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>Basell Sales &amp; Marketing Company B.V.</t>
+        </is>
+      </c>
+      <c r="E1062" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>Basenet Internet Projects B.V.</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>Basenet Internet Projects B.V.</t>
+        </is>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>Proyectos de Internet de Basenet B.V.</t>
+        </is>
+      </c>
+      <c r="E1063" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>BASF Coatings Services B.V.</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>Basf Coatings Services B.V.</t>
+        </is>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>Servicios de Basf Coatings B.V.</t>
+        </is>
+      </c>
+      <c r="E1064" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>BASF Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>Basf Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>BASF Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E1065" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>Basic City A+U</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>Basic City A+U</t>
+        </is>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>Ciudad básica a+u</t>
+        </is>
+      </c>
+      <c r="E1066" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>Basic Fit International B.V.</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>Basic Fit International B.V.</t>
+        </is>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>Fit Basic International B.V.</t>
+        </is>
+      </c>
+      <c r="E1067" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>Basic Pharma Manufacturing B.V.</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>Basic Pharma Manufacturing B.V.</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>Fabricación Basic Pharma B.V.</t>
+        </is>
+      </c>
+      <c r="E1068" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>Basis-E-Markt Groothandel</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>Basic E-Market Wholesale</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>Al por mayor</t>
+        </is>
+      </c>
+      <c r="E1069" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>Basware B.V.</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>Basware B.V.</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>Basware B.V.</t>
+        </is>
+      </c>
+      <c r="E1070" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>Bata Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>Bata Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>Bata Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E1071" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>Batavia Biomanufacturing B.V.</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>Batavia Biomanufacturing B.V.</t>
+        </is>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>Batavia Biomanufacturing B.V.</t>
+        </is>
+      </c>
+      <c r="E1072" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>Batavia Biosciences B.V.</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>Batavia Biosciences B.V.</t>
+        </is>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>Batavia Biosciences B.V.</t>
+        </is>
+      </c>
+      <c r="E1073" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>Battolyser B.V.</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>Battolyser B.V.</t>
+        </is>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>Battolyser B.V.</t>
+        </is>
+      </c>
+      <c r="E1074" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>Bau Lian B.V.</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>Bau Lian B.V.</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>Bau Lian B.V.</t>
+        </is>
+      </c>
+      <c r="E1075" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>Bauer Funderingstechniek B.V.</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>Bauer FunderingTechniek B.V.</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>Bauer FundderingTechniek B.V.</t>
+        </is>
+      </c>
+      <c r="E1076" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>Bausch+Lomb Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>Bausch+Lomb Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>Bausch+Lomb Netraylands B.V.</t>
+        </is>
+      </c>
+      <c r="E1077" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Bausch+Lomb OPS B.V.</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>Bausch+Lomb Ops B.V.</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>Bausch+Lomb Ops B.V.</t>
+        </is>
+      </c>
+      <c r="E1078" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>Bax-Shop.nl B.V.</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>Bax-shop.nl B.V.</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>Bax-shop.nl B.V.</t>
+        </is>
+      </c>
+      <c r="E1079" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>Baxter B.V.</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>Baxter B.V.</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>Baxter B.V.</t>
+        </is>
+      </c>
+      <c r="E1080" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>Bayards Aluminium Constructies B.V.</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>Bayards Aluminum Constructions B.V.</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>Bayards Construcciones de aluminio B.V.</t>
+        </is>
+      </c>
+      <c r="E1081" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>Bayer B.V.</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>Bayer B.V.</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>Bayer B.V.</t>
+        </is>
+      </c>
+      <c r="E1082" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>Bayer Global Investments B.V.</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>Bayer Global Investments B.V.</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>Bayer Global Investments B.V.</t>
+        </is>
+      </c>
+      <c r="E1083" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>Bayer Holland</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>Bayer Holland</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>Bayer Holanda</t>
+        </is>
+      </c>
+      <c r="E1084" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>Bayer Medical Care B.V.</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>Bayer Medical Care B.V.</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>Bayer Medical Care B.V.</t>
+        </is>
+      </c>
+      <c r="E1085" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>Bayer Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>Bayer Netherlands B.V.</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>Bayer Países Bajos B.V.</t>
+        </is>
+      </c>
+      <c r="E1086" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>Bayer World Investments B.V.</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>Bayer World Investments B.V.</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>Bayer World Investments B.V.</t>
+        </is>
+      </c>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>BBBLGM B.V.</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>BBBLGM B.V.</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>BBBLGM B.V.</t>
+        </is>
+      </c>
+      <c r="E1088" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>BBD Software B.V.</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>BBD Software B.V.</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>Software BBD B.V.</t>
+        </is>
+      </c>
+      <c r="E1089" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>BBLeap B.V.</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>BBLEAP B.V.</t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>BBLEAP B.V.</t>
+        </is>
+      </c>
+      <c r="E1090" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>B-Built B.V.</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>B-BUILT B.V.</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>B-Built B.V.</t>
+        </is>
+      </c>
+      <c r="E1091" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>BC Distribution B.V.</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>BC Distribution B.V.</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>BC Distribución B.V.</t>
+        </is>
+      </c>
+      <c r="E1092" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>BCD Travel Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>BCD Travel Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>BCD Travel Nederland B.V.</t>
+        </is>
+      </c>
+      <c r="E1093" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>BCD Travel Services B.V.</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>BCD Travel Services B.V.</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>BCD Travel Services B.V.</t>
+        </is>
+      </c>
+      <c r="E1094" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>BCEI International B.V.</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>BCEI International B.V.</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>BCEI International B.V.</t>
+        </is>
+      </c>
+      <c r="E1095" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>BCS (EU) B.V.</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>BCS (EU) B.V.</t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>BCS (UE) B.V.</t>
+        </is>
+      </c>
+      <c r="E1096" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>BD Kiestra B.V.</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>BD Kiestra B.V.</t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>BD Kiestra B.V.</t>
+        </is>
+      </c>
+      <c r="E1097" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>BD&amp;Spectrum B.V.</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>BD &amp; Spectrum B.V.</t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>BD y Spectrum B.V.</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>Bdairy B.V.</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>Bdairy B.V.</t>
+        </is>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>Bdairy B.V.</t>
+        </is>
+      </c>
+      <c r="E1099" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>BDO Accountancy, Tax &amp; Legal B.V.</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>BDO Accountancy, Tax &amp; Legal B.V.</t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>BDO Contabilidad, Tax &amp; Legal B.V.</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>BDO Audit &amp; Assurance B.V.</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>BDO Audit &amp; Assurance B.V.</t>
+        </is>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>BDO Auditoría y aseguramiento B.V.</t>
+        </is>
+      </c>
+      <c r="E1101" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
